--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,95 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.amount</t>
   </si>
   <si>
@@ -646,18 +735,6 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
@@ -665,16 +742,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>drugNo</t>
@@ -772,12 +839,6 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1186,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1219,7 +1280,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2927,20 +2988,18 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -2989,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3001,13 +3060,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3018,11 +3077,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3041,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3088,19 +3147,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3112,13 +3171,13 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3129,7 +3188,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3140,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3149,10 +3208,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3160,8 +3219,12 @@
       <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3185,13 +3248,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3209,36 +3270,36 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3249,7 +3310,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3258,19 +3319,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3306,50 +3371,50 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3358,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3367,18 +3432,20 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3427,25 +3494,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3456,11 +3523,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3473,26 +3540,24 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3540,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3552,13 +3617,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3569,7 +3634,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3577,7 +3642,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
@@ -3592,20 +3657,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3653,10 +3714,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -3665,24 +3726,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3693,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -3705,18 +3766,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3752,37 +3811,35 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3793,18 +3850,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -3816,17 +3875,15 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -3875,68 +3932,72 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3984,25 +4045,25 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4013,18 +4074,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4036,18 +4097,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4083,52 +4146,50 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4149,16 +4210,18 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4206,25 +4269,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4235,7 +4298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4243,7 +4306,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4255,18 +4318,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4315,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4330,21 +4395,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4364,16 +4429,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4424,7 +4489,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4436,13 +4501,13 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4453,18 +4518,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -4476,15 +4541,17 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4521,37 +4588,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4564,7 +4631,9 @@
       <c r="A31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4573,7 +4642,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4585,13 +4654,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4642,25 +4711,25 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4671,18 +4740,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4691,20 +4760,18 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4753,25 +4820,25 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4782,43 +4849,39 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4866,25 +4929,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4958,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4918,17 +4981,15 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -4977,7 +5038,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4995,18 +5056,18 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5029,13 +5090,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5086,7 +5147,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5098,19 +5159,463 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AJ38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>272</v>
+      <c r="AK38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
